--- a/base_file/main.xlsx
+++ b/base_file/main.xlsx
@@ -21,9 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t xml:space="preserve">Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подразделение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата</t>
   </si>
   <si>
     <t xml:space="preserve">Всего</t>
@@ -230,17 +245,17 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -305,16 +320,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,7 +345,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,14 +538,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="21.28"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -541,460 +592,460 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="42.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="n">
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="6" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="n">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="4" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="4" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="4" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="4" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="6" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="4" t="n">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="6" t="n">
         <v>114</v>
       </c>
     </row>

--- a/base_file/main.xlsx
+++ b/base_file/main.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t xml:space="preserve">Элемент питания ААА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пустое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пустое1</t>
   </si>
 </sst>
 </file>
@@ -320,16 +326,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -347,6 +353,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -546,30 +556,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="21.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -589,16 +599,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="42.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,6 +1057,22 @@
       </c>
       <c r="B56" s="6" t="n">
         <v>114</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/base_file/main.xlsx
+++ b/base_file/main.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Движение" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Наименования" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Амбулатория" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Стационар" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Дневной Стационар" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
@@ -219,9 +222,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -326,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -357,6 +361,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -601,7 +613,7 @@
   </sheetPr>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
@@ -1084,4 +1096,724 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="9" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="9" t="n">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/base_file/main.xlsx
+++ b/base_file/main.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Движение" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,6 +13,7 @@
     <sheet name="Амбулатория" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Стационар" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Дневной Стационар" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Вне плана" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
@@ -210,12 +211,6 @@
   </si>
   <si>
     <t xml:space="preserve">Элемент питания ААА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пустое</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пустое1</t>
   </si>
 </sst>
 </file>
@@ -330,7 +325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,6 +364,14 @@
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -614,7 +617,7 @@
   <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,20 +1075,12 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1697,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1805,6 +1800,473 @@
       </c>
       <c r="B13" s="9" t="n">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="107.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="11" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="11" t="n">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/base_file/main.xlsx
+++ b/base_file/main.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Движение" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
   <si>
+    <t xml:space="preserve">Отделение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подразделение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет</t>
+  </si>
+  <si>
     <t xml:space="preserve">Наименование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отделение </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подразделение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабинет</t>
   </si>
   <si>
     <t xml:space="preserve">Количество</t>
@@ -217,12 +217,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +247,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -325,52 +334,60 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,40 +580,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="21.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -620,475 +640,475 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="8" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="8" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="8" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="8" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="8" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="8" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="8" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="n">
+      <c r="B20" s="8" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B21" s="8" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6" t="n">
+      <c r="B22" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6" t="n">
+      <c r="B23" s="8" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B24" s="8" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="6" t="n">
+      <c r="B25" s="8" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="6" t="n">
+      <c r="B26" s="8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B27" s="8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="6" t="n">
+      <c r="B28" s="8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="6" t="n">
+      <c r="B29" s="8" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="6" t="n">
+      <c r="B30" s="8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="6" t="n">
+      <c r="B31" s="8" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="6" t="n">
+      <c r="B32" s="8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="6" t="n">
+      <c r="B33" s="8" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="6" t="n">
+      <c r="B34" s="8" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="6" t="n">
+      <c r="B35" s="8" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="6" t="n">
+      <c r="B36" s="8" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="6" t="n">
+      <c r="B38" s="8" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="6" t="n">
+      <c r="B39" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="6" t="n">
+      <c r="B40" s="8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="6" t="n">
+      <c r="B41" s="8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="6" t="n">
+      <c r="B42" s="8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="6" t="n">
+      <c r="B43" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
+    <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="6" t="n">
+      <c r="B46" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="6" t="n">
+      <c r="B47" s="8" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+      <c r="B49" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="6" t="n">
+      <c r="B50" s="8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="6" t="n">
+      <c r="B51" s="8" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="6" t="n">
+      <c r="B52" s="8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="6" t="n">
+      <c r="B53" s="8" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="6" t="n">
+      <c r="B54" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="6" t="n">
+      <c r="B55" s="8" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="6" t="n">
+      <c r="B56" s="8" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1104,373 +1124,373 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="11" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="11" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+    <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="11" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+    <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="11" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+    <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+    <row r="19" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="21" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+    <row r="22" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+    <row r="23" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="11" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+    <row r="24" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+    <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="11" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+    <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+    <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+    <row r="28" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="11" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+    <row r="29" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="11" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+    <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="11" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+    <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="11" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+    <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="11" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+    <row r="34" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+    <row r="35" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+    <row r="36" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="B36" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="11" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+    <row r="39" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="11" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+    <row r="40" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="B40" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="B41" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="11" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+    <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+    <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="11" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+    <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="11" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+    <row r="46" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B46" s="11" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1479,8 +1499,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1496,181 +1516,181 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="11" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="11" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="11" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+    <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1679,8 +1699,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1696,109 +1716,109 @@
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="11" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="11" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1807,8 +1827,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1820,452 +1840,452 @@
   </sheetPr>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="13" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="13" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="13" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="13" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+    <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="13" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+    <row r="12" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="13" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+    <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="13" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+    <row r="16" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="13" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+    <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="13" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+    <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="13" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="13" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+    <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="13" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+    <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="13" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+    <row r="22" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="13" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+    <row r="23" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="13" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+    <row r="24" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="13" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="13" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+    <row r="26" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="13" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+    <row r="27" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="13" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+    <row r="28" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="13" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+    <row r="29" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="13" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+    <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="13" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+    <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="13" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+    <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="13" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+    <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="13" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+    <row r="34" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="13" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+    <row r="35" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="13" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="B36" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="13" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="13" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="13" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+    <row r="41" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="13" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+    <row r="42" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="13" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="107.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+    <row r="43" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="B43" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="B44" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+    <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="13" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+    <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+      <c r="B47" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="B48" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="11" t="n">
+      <c r="B49" s="13" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+    <row r="50" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B50" s="13" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+    <row r="51" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="11" t="n">
+      <c r="B51" s="13" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+    <row r="52" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="11" t="n">
+      <c r="B52" s="13" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+    <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="11" t="n">
+      <c r="B53" s="13" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
+    <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="11" t="n">
+      <c r="B54" s="13" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+    <row r="55" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="11" t="n">
+      <c r="B55" s="13" t="n">
         <v>114</v>
       </c>
     </row>
@@ -2274,8 +2294,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/base_file/main.xlsx
+++ b/base_file/main.xlsx
@@ -334,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,6 +348,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,10 +584,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -615,8 +619,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -647,460 +654,460 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="9" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="9" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="9" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="8" t="n">
+      <c r="B23" s="9" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="9" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="9" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="9" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="9" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="9" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8" t="n">
+      <c r="B31" s="9" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="8" t="n">
+      <c r="B32" s="9" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B33" s="9" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="8" t="n">
+      <c r="B34" s="9" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="8" t="n">
+      <c r="B35" s="9" t="n">
         <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="8" t="n">
+      <c r="B36" s="9" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="8" t="n">
+      <c r="B37" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B38" s="9" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="8" t="n">
+      <c r="B39" s="9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="8" t="n">
+      <c r="B40" s="9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="8" t="n">
+      <c r="B41" s="9" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="8" t="n">
+      <c r="B42" s="9" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="8" t="n">
+      <c r="B43" s="9" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="8" t="n">
+      <c r="B44" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="8" t="n">
+      <c r="B45" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="8" t="n">
+      <c r="B46" s="9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="8" t="n">
+      <c r="B47" s="9" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="8" t="n">
+      <c r="B48" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="8" t="n">
+      <c r="B49" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="8" t="n">
+      <c r="B50" s="9" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="8" t="n">
+      <c r="B51" s="9" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="8" t="n">
+      <c r="B52" s="9" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="8" t="n">
+      <c r="B53" s="9" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="8" t="n">
+      <c r="B54" s="9" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="8" t="n">
+      <c r="B55" s="9" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="8" t="n">
+      <c r="B56" s="9" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1127,370 +1134,370 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="n">
+      <c r="B1" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="12" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="12" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="12" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="12" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="12" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="12" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="12" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="12" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="12" t="n">
         <v>157</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="12" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="12" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="12" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="12" t="n">
         <v>106</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="12" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="12" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="12" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="12" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="12" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1519,178 +1526,178 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="n">
+      <c r="B1" s="12" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="12" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="12" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="12" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="12" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="12" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="12" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="12" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1719,106 +1726,106 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="n">
+      <c r="B1" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="12" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="12" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="12" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1850,442 +1857,442 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13" t="n">
+      <c r="B1" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="14" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="14" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="14" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="14" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="14" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="14" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="14" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="14" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="14" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13" t="n">
+      <c r="B20" s="14" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="14" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="13" t="n">
+      <c r="B22" s="14" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="13" t="n">
+      <c r="B23" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="13" t="n">
+      <c r="B24" s="14" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="14" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="14" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="14" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="14" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="13" t="n">
+      <c r="B29" s="14" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="14" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="13" t="n">
+      <c r="B31" s="14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="14" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="13" t="n">
+      <c r="B33" s="14" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="13" t="n">
+      <c r="B34" s="14" t="n">
         <v>103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="13" t="n">
+      <c r="B35" s="14" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="13" t="n">
+      <c r="B36" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="13" t="n">
+      <c r="B37" s="14" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="13" t="n">
+      <c r="B38" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="13" t="n">
+      <c r="B39" s="14" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="13" t="n">
+      <c r="B40" s="14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="13" t="n">
+      <c r="B41" s="14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="13" t="n">
+      <c r="B42" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="13" t="n">
+      <c r="B43" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="13" t="n">
+      <c r="B44" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="13" t="n">
+      <c r="B45" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="13" t="n">
+      <c r="B46" s="14" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="13" t="n">
+      <c r="B47" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="13" t="n">
+      <c r="B48" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="13" t="n">
+      <c r="B49" s="14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="13" t="n">
+      <c r="B50" s="14" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="13" t="n">
+      <c r="B51" s="14" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="13" t="n">
+      <c r="B52" s="14" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="13" t="n">
+      <c r="B53" s="14" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="13" t="n">
+      <c r="B54" s="14" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="13" t="n">
+      <c r="B55" s="14" t="n">
         <v>114</v>
       </c>
     </row>

--- a/base_file/main.xlsx
+++ b/base_file/main.xlsx
@@ -217,11 +217,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -334,7 +333,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -351,15 +350,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,7 +358,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,15 +370,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,10 +575,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,12 +610,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="5"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -654,460 +643,460 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="7" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="7" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="7" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="7" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="7" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="7" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="7" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="7" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="7" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="7" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="7" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="7" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="7" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="7" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="7" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="7" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="7" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="7" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="7" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="7" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="7" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="7" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="7" t="n">
         <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="7" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="7" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B46" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="7" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="9" t="n">
+      <c r="B51" s="7" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="9" t="n">
+      <c r="B52" s="7" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="7" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B54" s="7" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B55" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="9" t="n">
+      <c r="B56" s="7" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1134,370 +1123,370 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="n">
+      <c r="B1" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="10" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="10" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="10" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="10" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="10" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="10" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="10" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="10" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="10" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="n">
+      <c r="B17" s="10" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="10" t="n">
         <v>157</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="10" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="10" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="10" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="10" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="10" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="10" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="10" t="n">
         <v>106</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="10" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="12" t="n">
+      <c r="B31" s="10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="12" t="n">
+      <c r="B32" s="10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="12" t="n">
+      <c r="B33" s="10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="12" t="n">
+      <c r="B34" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="12" t="n">
+      <c r="B35" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="12" t="n">
+      <c r="B39" s="10" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="12" t="n">
+      <c r="B40" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="12" t="n">
+      <c r="B41" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="10" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="12" t="n">
+      <c r="B43" s="10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="12" t="n">
+      <c r="B44" s="10" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="12" t="n">
+      <c r="B45" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="10" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1526,178 +1515,178 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="n">
+      <c r="B1" s="10" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="10" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="10" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="10" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="10" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="10" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="10" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="10" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="12" t="n">
+      <c r="B17" s="10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="10" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="10" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="10" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="10" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1726,106 +1715,106 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="n">
+      <c r="B1" s="10" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="10" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="10" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="10" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="10" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1847,8 +1836,8 @@
   </sheetPr>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1857,442 +1846,442 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="n">
+      <c r="B1" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="12" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="12" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="12" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="12" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="14" t="n">
+      <c r="B16" s="12" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="12" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="12" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="14" t="n">
+      <c r="B20" s="12" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="12" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="12" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="12" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="12" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="12" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="12" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="12" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="14" t="n">
+      <c r="B34" s="12" t="n">
         <v>103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="12" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="14" t="n">
+      <c r="B37" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="14" t="n">
+      <c r="B38" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="14" t="n">
+      <c r="B39" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="14" t="n">
+      <c r="B40" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="14" t="n">
+      <c r="B41" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="14" t="n">
+      <c r="B42" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="14" t="n">
+      <c r="B43" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="14" t="n">
+      <c r="B44" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="14" t="n">
+      <c r="B45" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="14" t="n">
+      <c r="B46" s="12" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="14" t="n">
+      <c r="B47" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="14" t="n">
+      <c r="B48" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="14" t="n">
+      <c r="B49" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="14" t="n">
+      <c r="B50" s="12" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="14" t="n">
+      <c r="B51" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="14" t="n">
+      <c r="B52" s="12" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="14" t="n">
+      <c r="B53" s="12" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="14" t="n">
+      <c r="B54" s="12" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="14" t="n">
+      <c r="B55" s="12" t="n">
         <v>114</v>
       </c>
     </row>

--- a/base_file/main.xlsx
+++ b/base_file/main.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Движение" sheetId="1" state="visible" r:id="rId3"/>
@@ -577,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,10 +610,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1836,8 +1848,8 @@
   </sheetPr>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
